--- a/Informes/Informe_4/TestUnitarios.xlsx
+++ b/Informes/Informe_4/TestUnitarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="18915" windowHeight="7230"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="18915" windowHeight="7230" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Unitarios" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="Problemas Test Integracion" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="135">
   <si>
     <t>Test Unitarios</t>
   </si>
@@ -154,9 +155,6 @@
     <t>testCalcularPorcentajeRedondeado</t>
   </si>
   <si>
-    <t>testCalcularPorcentajeRedondeadoParaArraiba</t>
-  </si>
-  <si>
     <t>testCalcularPorcentajeRedondeadoParaAbajo</t>
   </si>
   <si>
@@ -190,9 +188,6 @@
     <t>testRedondearParaAbajoConUnDecimal</t>
   </si>
   <si>
-    <t>testRedondearParaAbajoConDecimal5</t>
-  </si>
-  <si>
     <t>testRedondearFloatCero</t>
   </si>
   <si>
@@ -206,9 +201,6 @@
   </si>
   <si>
     <t>testRedondearFloatParaAbajoConUnDecimal</t>
-  </si>
-  <si>
-    <t>testRedondearFloatParaAbajoConDecimal5</t>
   </si>
   <si>
     <t>#</t>
@@ -288,6 +280,150 @@
   </si>
   <si>
     <t>testEnviarSolicitud</t>
+  </si>
+  <si>
+    <t>N° Integracion</t>
+  </si>
+  <si>
+    <t>Objetivo Prueba</t>
+  </si>
+  <si>
+    <t>Descripcion de la Prueba</t>
+  </si>
+  <si>
+    <t>Comprobar que el subsistema de autenticacion, es capaz de identificar cuando el usuario no esta autenticado y redireccionarlo al sistema de login y es capaz de dejarlo pasar a la aplicación cuando si se encuentra autenticado y recuera la informacion de este desde el contexto de sguridad.</t>
+  </si>
+  <si>
+    <t>Ya que requiere de la utilizacion de un sistema externo, se debera realizar manualmente. Y consiste en ingresar a la aplicación sin estar autenticado y loggearse con algun usuario e ingresar a la aplicación.</t>
+  </si>
+  <si>
+    <t>Resultado Esperado</t>
+  </si>
+  <si>
+    <t>Que la aplicación redireccione al usuario al portal de login institucional y que al loguearse este otro lo reireccione a la aplicación.</t>
+  </si>
+  <si>
+    <t>Verificar que el sistema de solicitudes recibe correctamente la informacion del usuario que fue autenticado previamente.</t>
+  </si>
+  <si>
+    <t>Verificar que el sistema recibe correctamente la informacion de las solicitudes enviadas y envia un correo electronico acorde.</t>
+  </si>
+  <si>
+    <t>Verificar que al enviar una solicitud, esta sea visible en el sistema de atencion de solicitudes para el jefe de area del area correspondiente.</t>
+  </si>
+  <si>
+    <t>Verificar que una solicitud pueda ser convertida en proyecto.</t>
+  </si>
+  <si>
+    <t>Verificar que despues de crear un proyecto se le puedan asignar tareas de SCM a este.</t>
+  </si>
+  <si>
+    <t>Ingresar al sistema y corroborar que los datos personales del usuario en la sesion sean los mismo proporcionados por LDAP. Esta prueba se realiza manualmente dado que el sistema externo debe crear un token de axeso al momento de entrar.</t>
+  </si>
+  <si>
+    <t>Que la informacion del usuario dentro del sistema sea la misma que la del usuario logueado.</t>
+  </si>
+  <si>
+    <t>Crear una nueva solicitud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que la solicitud se aya creado correctamente, que se aya enviado el correo correspondiente al mail del usuario logueado junto con el codigo de consulta de la solicitud creada. </t>
+  </si>
+  <si>
+    <t>Crear una solicitud para el Area de desarrollo.</t>
+  </si>
+  <si>
+    <t>Que la solicitud aparesca dentro de la lista de solicitudes del area de desarrollo.</t>
+  </si>
+  <si>
+    <t>testCalcularPorcentajeRedondeadoParaArriba</t>
+  </si>
+  <si>
+    <t>Verifica que el claculo del porcentaje entero sin decimal.</t>
+  </si>
+  <si>
+    <t>Verifica que el porcentaje sea redondeado hacia arriba cuando el decimal es mayor o igual a 5.</t>
+  </si>
+  <si>
+    <t>Verifica que el porcentaje sea redondeado hacia abajo cuando el decimal es menor a 5.</t>
+  </si>
+  <si>
+    <t>Verifica el calculo de una regla de tres.</t>
+  </si>
+  <si>
+    <t>Verifica que se debualva un 0 en caso que el denominador sea 0.</t>
+  </si>
+  <si>
+    <t>Verifica que se debualva un 0 en caso que el numerador sea 0.</t>
+  </si>
+  <si>
+    <t>Verifica el caso en que se debe devolver cien.</t>
+  </si>
+  <si>
+    <t>Verifica que funcione cuando el numerador es mayor a cien.</t>
+  </si>
+  <si>
+    <t>Verifica la funcion redondear cuando el numero es cero.</t>
+  </si>
+  <si>
+    <t>Verifica que el numero sea redondeado hacia abajo cuando el decimal es menor a 5 y el resultado no debe tener ningun decimal.</t>
+  </si>
+  <si>
+    <t>Verifica que el numero sea redondeado hacia arriba cuando el decimal es mayor o igual a 5 y el resultado no debe tener ningun decimal.</t>
+  </si>
+  <si>
+    <t>Verifica que el numero sea redondeado hacia arriba cuando el decimal es mayor o igual a 5 y el resultado no debe tener un decimal.</t>
+  </si>
+  <si>
+    <t>Verifica que el numero sea redondeado hacia abajo cuando el decimal es menor a 5 y el resultado no debe tener un decimal.</t>
+  </si>
+  <si>
+    <t>Verifica el caso en que el decimal es 5.</t>
+  </si>
+  <si>
+    <t>testRedondearParaArribaConDecimal5</t>
+  </si>
+  <si>
+    <t>testRedondearFloatParaArribaConDecimal5</t>
+  </si>
+  <si>
+    <t>Verifica la funcion redondear cuando el numero es cero. Cuando el resultado es convertido de BigDecimal a Float.</t>
+  </si>
+  <si>
+    <t>Verifica que el numero sea redondeado hacia arriba cuando el decimal es mayor o igual a 5 y el resultado no debe tener ningun decimal. Cuando el resultado es convertido de BigDecimal a Float.</t>
+  </si>
+  <si>
+    <t>Verifica que el numero sea redondeado hacia arriba cuando el decimal es mayor o igual a 5 y el resultado no debe tener un decimal. Cuando el resultado es convertido de BigDecimal a Float.</t>
+  </si>
+  <si>
+    <t>Verifica que el numero sea redondeado hacia abajo cuando el decimal es menor a 5 y el resultado no debe tener un decimal. Cuando el resultado es convertido de BigDecimal a Float.</t>
+  </si>
+  <si>
+    <t>Verifica que el numero sea redondeado hacia abajo cuando el decimal es menor a 5 y el resultado no debe tener ningun decimal. Cuando el resultado es convertido de BigDecimal a Float.</t>
+  </si>
+  <si>
+    <t>Verifica el caso en que el decimal es 5. Cuando el resultado es convertido de BigDecimal a Float.</t>
+  </si>
+  <si>
+    <t>Verifica que el codigo es vacio cuando el numero es cero.</t>
+  </si>
+  <si>
+    <t>Verifica que el codigo es vacio cuando el numero es negativo.</t>
+  </si>
+  <si>
+    <t>Verifica que el codigo es "q" cuando el numero es 1.</t>
+  </si>
+  <si>
+    <t>Verifica que el codigo es "2teCogGBXee" cuando el numero es el maximo valor de un Long.</t>
+  </si>
+  <si>
+    <t>Verifica que el codigo no se repite aunque sea generado en instantes de tiempo casi iguales y con ruts similares.</t>
+  </si>
+  <si>
+    <t>Verifica que un codigo de consulta sea invalido cuando ya existe.</t>
+  </si>
+  <si>
+    <t>Verifica que un codigo de consulta es invalido cuando no existe.</t>
   </si>
 </sst>
 </file>
@@ -395,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -407,6 +543,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -416,8 +564,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,15 +879,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
     <col min="4" max="4" width="55" customWidth="1"/>
   </cols>
   <sheetData>
@@ -750,7 +908,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -761,7 +919,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
@@ -770,7 +928,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -779,7 +937,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -788,7 +946,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
@@ -797,7 +955,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
@@ -806,7 +964,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
@@ -815,7 +973,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
@@ -824,7 +982,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
@@ -833,7 +991,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
@@ -842,7 +1000,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
@@ -851,7 +1009,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
@@ -860,7 +1018,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
@@ -869,7 +1027,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
@@ -878,7 +1036,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="2" t="s">
         <v>33</v>
       </c>
@@ -887,7 +1045,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
@@ -896,7 +1054,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
@@ -905,7 +1063,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
@@ -914,7 +1072,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
@@ -923,242 +1081,312 @@
       </c>
     </row>
     <row r="24" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="25" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+      <c r="C33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+      <c r="C34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="12"/>
+      <c r="C35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="2" t="s">
+      <c r="D38" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="2" t="s">
+      <c r="D39" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="2" t="s">
+      <c r="D40" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+      <c r="C41" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+      <c r="C42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-      <c r="C41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="6"/>
-      <c r="C42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
+      <c r="D42" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="13"/>
       <c r="C43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="44" spans="2:4" s="3" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+      <c r="C45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B46" s="12"/>
+      <c r="C46" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D46" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B47" s="12"/>
+      <c r="C47" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D47" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B48" s="13"/>
+      <c r="C48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="14"/>
+      <c r="C50" s="15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="C45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="C46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-      <c r="C47" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
-      <c r="C48" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+      <c r="D50" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="14"/>
+      <c r="C51" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="14"/>
+      <c r="C52" s="15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D52" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="14"/>
+      <c r="C53" s="15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+      <c r="D53" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" s="14"/>
+      <c r="C54" s="15" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+      <c r="D54" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="14"/>
+      <c r="C55" s="15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+      <c r="D55" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="14"/>
+      <c r="C56" s="15" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>89</v>
-      </c>
+      <c r="D56" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B5:B23"/>
     <mergeCell ref="B24:B43"/>
     <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1181,47 +1409,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="9" t="s">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>68</v>
+      <c r="D4" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1231,13 +1459,128 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" s="3" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" s="3" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Informes/Informe_4/TestUnitarios.xlsx
+++ b/Informes/Informe_4/TestUnitarios.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22220"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="18915" windowHeight="7230" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="80" windowWidth="23140" windowHeight="12140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Unitarios" sheetId="1" r:id="rId1"/>
     <sheet name="Problemas Test Unitarios" sheetId="2" r:id="rId2"/>
     <sheet name="Test Integracion" sheetId="3" r:id="rId3"/>
     <sheet name="Problemas Test Integracion" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="143">
   <si>
     <t>Test Unitarios</t>
   </si>
@@ -424,6 +429,30 @@
   </si>
   <si>
     <t>Verifica que un codigo de consulta es invalido cuando no existe.</t>
+  </si>
+  <si>
+    <t>Prueba de Integracion</t>
+  </si>
+  <si>
+    <t>Nº</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Informacion caso de Prueba</t>
+  </si>
+  <si>
+    <t>Enfoque</t>
+  </si>
+  <si>
+    <t>Procedimiento</t>
+  </si>
+  <si>
+    <t>Resultados</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
   </si>
 </sst>
 </file>
@@ -477,38 +506,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -516,14 +545,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -555,6 +584,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -567,14 +605,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,24 +911,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="D49" sqref="D49:D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
     <col min="4" max="4" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -907,8 +939,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="2:4" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -918,8 +950,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
+    <row r="6" spans="2:4" s="3" customFormat="1" ht="50" customHeight="1">
+      <c r="B6" s="15"/>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
@@ -927,8 +959,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
+    <row r="7" spans="2:4" s="3" customFormat="1" ht="50" customHeight="1">
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -936,8 +968,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
+    <row r="8" spans="2:4" s="3" customFormat="1" ht="50" customHeight="1">
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -945,8 +977,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
+    <row r="9" spans="2:4" s="3" customFormat="1" ht="50" customHeight="1">
+      <c r="B9" s="15"/>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
@@ -954,8 +986,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
+    <row r="10" spans="2:4" s="3" customFormat="1" ht="50" customHeight="1">
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
@@ -963,8 +995,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
+    <row r="11" spans="2:4" s="3" customFormat="1" ht="50" customHeight="1">
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
@@ -972,8 +1004,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:4" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
+    <row r="12" spans="2:4" s="3" customFormat="1" ht="57.75" customHeight="1">
+      <c r="B12" s="15"/>
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
@@ -981,8 +1013,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
+    <row r="13" spans="2:4" s="3" customFormat="1" ht="50" customHeight="1">
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
@@ -990,8 +1022,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
+    <row r="14" spans="2:4" s="3" customFormat="1" ht="50" customHeight="1">
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
@@ -999,8 +1031,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
+    <row r="15" spans="2:4" s="3" customFormat="1" ht="50" customHeight="1">
+      <c r="B15" s="15"/>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1008,8 +1040,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
+    <row r="16" spans="2:4" s="3" customFormat="1" ht="50" customHeight="1">
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1017,8 +1049,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
+    <row r="17" spans="2:4" s="3" customFormat="1" ht="50" customHeight="1">
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1026,8 +1058,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
+    <row r="18" spans="2:4" s="3" customFormat="1" ht="50" customHeight="1">
+      <c r="B18" s="15"/>
       <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1035,8 +1067,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
+    <row r="19" spans="2:4" s="3" customFormat="1" ht="50" customHeight="1">
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>33</v>
       </c>
@@ -1044,8 +1076,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
+    <row r="20" spans="2:4" s="3" customFormat="1" ht="35.25" customHeight="1">
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1053,8 +1085,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
+    <row r="21" spans="2:4" s="3" customFormat="1" ht="50" customHeight="1">
+      <c r="B21" s="15"/>
       <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
@@ -1062,8 +1094,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
+    <row r="22" spans="2:4" s="3" customFormat="1" ht="50" customHeight="1">
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
@@ -1071,8 +1103,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
+    <row r="23" spans="2:4" s="3" customFormat="1" ht="50" customHeight="1">
+      <c r="B23" s="16"/>
       <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
@@ -1080,8 +1112,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+    <row r="24" spans="2:4" s="3" customFormat="1">
+      <c r="B24" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1091,8 +1123,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
+    <row r="25" spans="2:4" s="3" customFormat="1" ht="28">
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>105</v>
       </c>
@@ -1100,8 +1132,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
+    <row r="26" spans="2:4" s="3" customFormat="1" ht="28">
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>45</v>
       </c>
@@ -1109,8 +1141,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
+    <row r="27" spans="2:4" s="3" customFormat="1">
+      <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
@@ -1118,8 +1150,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
+    <row r="28" spans="2:4" s="3" customFormat="1">
+      <c r="B28" s="15"/>
       <c r="C28" s="2" t="s">
         <v>47</v>
       </c>
@@ -1127,8 +1159,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
+    <row r="29" spans="2:4" s="3" customFormat="1">
+      <c r="B29" s="15"/>
       <c r="C29" s="2" t="s">
         <v>48</v>
       </c>
@@ -1136,8 +1168,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
+    <row r="30" spans="2:4" s="3" customFormat="1">
+      <c r="B30" s="15"/>
       <c r="C30" s="2" t="s">
         <v>49</v>
       </c>
@@ -1145,8 +1177,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
+    <row r="31" spans="2:4" s="3" customFormat="1">
+      <c r="B31" s="15"/>
       <c r="C31" s="2" t="s">
         <v>50</v>
       </c>
@@ -1154,8 +1186,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
+    <row r="32" spans="2:4" s="3" customFormat="1">
+      <c r="B32" s="15"/>
       <c r="C32" s="2" t="s">
         <v>51</v>
       </c>
@@ -1163,8 +1195,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
+    <row r="33" spans="2:4" s="3" customFormat="1" ht="28">
+      <c r="B33" s="15"/>
       <c r="C33" s="2" t="s">
         <v>52</v>
       </c>
@@ -1172,8 +1204,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="2:4" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
+    <row r="34" spans="2:4" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="B34" s="15"/>
       <c r="C34" s="2" t="s">
         <v>53</v>
       </c>
@@ -1181,8 +1213,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="2:4" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
+    <row r="35" spans="2:4" s="3" customFormat="1" ht="42.75" customHeight="1">
+      <c r="B35" s="15"/>
       <c r="C35" s="2" t="s">
         <v>54</v>
       </c>
@@ -1190,8 +1222,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="2:4" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
+    <row r="36" spans="2:4" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B36" s="15"/>
       <c r="C36" s="2" t="s">
         <v>55</v>
       </c>
@@ -1199,8 +1231,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
+    <row r="37" spans="2:4" s="3" customFormat="1">
+      <c r="B37" s="15"/>
       <c r="C37" s="2" t="s">
         <v>120</v>
       </c>
@@ -1208,8 +1240,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
+    <row r="38" spans="2:4" s="3" customFormat="1" ht="28">
+      <c r="B38" s="15"/>
       <c r="C38" s="2" t="s">
         <v>56</v>
       </c>
@@ -1217,8 +1249,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="2:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
+    <row r="39" spans="2:4" s="3" customFormat="1" ht="42">
+      <c r="B39" s="15"/>
       <c r="C39" s="2" t="s">
         <v>57</v>
       </c>
@@ -1226,8 +1258,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="2:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
+    <row r="40" spans="2:4" s="3" customFormat="1" ht="42">
+      <c r="B40" s="15"/>
       <c r="C40" s="2" t="s">
         <v>58</v>
       </c>
@@ -1235,8 +1267,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="2:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B41" s="12"/>
+    <row r="41" spans="2:4" s="3" customFormat="1" ht="42">
+      <c r="B41" s="15"/>
       <c r="C41" s="2" t="s">
         <v>59</v>
       </c>
@@ -1244,8 +1276,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="2:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B42" s="12"/>
+    <row r="42" spans="2:4" s="3" customFormat="1" ht="42">
+      <c r="B42" s="15"/>
       <c r="C42" s="2" t="s">
         <v>60</v>
       </c>
@@ -1253,8 +1285,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="13"/>
+    <row r="43" spans="2:4" s="3" customFormat="1" ht="28">
+      <c r="B43" s="16"/>
       <c r="C43" s="2" t="s">
         <v>121</v>
       </c>
@@ -1262,8 +1294,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="2:4" s="3" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
+    <row r="44" spans="2:4" s="3" customFormat="1" ht="46.5" customHeight="1">
+      <c r="B44" s="14" t="s">
         <v>67</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1273,8 +1305,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="2:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B45" s="12"/>
+    <row r="45" spans="2:4" s="3" customFormat="1" ht="28">
+      <c r="B45" s="15"/>
       <c r="C45" s="2" t="s">
         <v>69</v>
       </c>
@@ -1282,8 +1314,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="2:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B46" s="12"/>
+    <row r="46" spans="2:4" s="3" customFormat="1" ht="42">
+      <c r="B46" s="15"/>
       <c r="C46" s="2" t="s">
         <v>70</v>
       </c>
@@ -1291,8 +1323,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="2:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B47" s="12"/>
+    <row r="47" spans="2:4" s="3" customFormat="1" ht="56">
+      <c r="B47" s="15"/>
       <c r="C47" s="2" t="s">
         <v>71</v>
       </c>
@@ -1300,8 +1332,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="2:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B48" s="13"/>
+    <row r="48" spans="2:4" s="3" customFormat="1" ht="28">
+      <c r="B48" s="16"/>
       <c r="C48" s="2" t="s">
         <v>72</v>
       </c>
@@ -1309,74 +1341,74 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="14" t="s">
+    <row r="49" spans="2:4" ht="30.75" customHeight="1">
+      <c r="B49" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="14"/>
-      <c r="C50" s="15" t="s">
+    <row r="50" spans="2:4">
+      <c r="B50" s="17"/>
+      <c r="C50" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="14"/>
-      <c r="C51" s="15" t="s">
+    <row r="51" spans="2:4">
+      <c r="B51" s="17"/>
+      <c r="C51" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="14"/>
-      <c r="C52" s="15" t="s">
+    <row r="52" spans="2:4" ht="28">
+      <c r="B52" s="17"/>
+      <c r="C52" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="14"/>
-      <c r="C53" s="15" t="s">
+    <row r="53" spans="2:4" ht="28">
+      <c r="B53" s="17"/>
+      <c r="C53" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" s="14"/>
-      <c r="C54" s="15" t="s">
+    <row r="54" spans="2:4">
+      <c r="B54" s="17"/>
+      <c r="C54" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="14"/>
-      <c r="C55" s="15" t="s">
+    <row r="55" spans="2:4">
+      <c r="B55" s="17"/>
+      <c r="C55" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="14"/>
-      <c r="C56" s="15" t="s">
+    <row r="56" spans="2:4">
+      <c r="B56" s="17"/>
+      <c r="C56" s="11" t="s">
         <v>86</v>
       </c>
       <c r="D56" s="5"/>
@@ -1389,7 +1421,12 @@
     <mergeCell ref="B49:B56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1398,17 +1435,17 @@
   <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4">
       <c r="B2" s="6" t="s">
         <v>61</v>
       </c>
@@ -1419,7 +1456,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -1430,7 +1467,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -1441,19 +1478,24 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1461,20 +1503,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="53.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="53.83203125" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="5" max="5" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5">
       <c r="B1" s="8" t="s">
         <v>87</v>
       </c>
@@ -1488,7 +1530,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="2:5" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" s="3" customFormat="1" ht="99" customHeight="1">
       <c r="B2" s="9">
         <v>1</v>
       </c>
@@ -1502,7 +1544,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="3" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" s="3" customFormat="1" ht="99.75" customHeight="1">
       <c r="B3" s="9">
         <v>2</v>
       </c>
@@ -1516,7 +1558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:5" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" s="3" customFormat="1" ht="81" customHeight="1">
       <c r="B4" s="9">
         <v>3</v>
       </c>
@@ -1530,7 +1572,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="2:5" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" s="3" customFormat="1" ht="58.5" customHeight="1">
       <c r="B5" s="9">
         <v>4</v>
       </c>
@@ -1544,7 +1586,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="B6" s="9">
         <v>5</v>
       </c>
@@ -1552,7 +1594,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="2:5" s="3" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" s="3" customFormat="1" ht="54.75" customHeight="1">
       <c r="B7" s="9">
         <v>6</v>
       </c>
@@ -1560,27 +1602,32 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="B10" s="9"/>
     </row>
-    <row r="11" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="B13" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1592,8 +1639,136 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="B2:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:E7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Informes/Informe_4/TestUnitarios.xlsx
+++ b/Informes/Informe_4/TestUnitarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="18915" windowHeight="7230" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="18915" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Unitarios" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Problemas Test Integracion" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -447,7 +446,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +462,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -539,9 +544,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -555,6 +557,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -567,14 +578,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,14 +887,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49:D56"/>
+    <sheetView topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
     <col min="4" max="4" width="55" customWidth="1"/>
   </cols>
@@ -908,362 +916,362 @@
       </c>
     </row>
     <row r="5" spans="2:4" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:4" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="17" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="27" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="28" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="17" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="17" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="17" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33" spans="2:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="14"/>
+      <c r="C34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35" spans="2:4" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="14"/>
+      <c r="C35" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="17" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:4" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="14"/>
+      <c r="C36" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="37" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="17" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="39" spans="2:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="14"/>
+      <c r="C39" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="17" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="14"/>
+      <c r="C40" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B41" s="12"/>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="14"/>
+      <c r="C41" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="17" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="42" spans="2:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B42" s="12"/>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="14"/>
+      <c r="C42" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="17" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="13"/>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="15"/>
+      <c r="C43" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="17" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44" spans="2:4" s="3" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1274,7 +1282,7 @@
       </c>
     </row>
     <row r="45" spans="2:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B45" s="12"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="2" t="s">
         <v>69</v>
       </c>
@@ -1283,7 +1291,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B46" s="12"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="2" t="s">
         <v>70</v>
       </c>
@@ -1292,7 +1300,7 @@
       </c>
     </row>
     <row r="47" spans="2:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B47" s="12"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="2" t="s">
         <v>71</v>
       </c>
@@ -1301,7 +1309,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B48" s="13"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="2" t="s">
         <v>72</v>
       </c>
@@ -1310,76 +1318,76 @@
       </c>
     </row>
     <row r="49" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="11" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="14"/>
-      <c r="C50" s="15" t="s">
+      <c r="B50" s="16"/>
+      <c r="C50" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="14"/>
-      <c r="C51" s="15" t="s">
+      <c r="B51" s="16"/>
+      <c r="C51" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="14"/>
-      <c r="C52" s="15" t="s">
+      <c r="B52" s="16"/>
+      <c r="C52" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="11" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="14"/>
-      <c r="C53" s="15" t="s">
+      <c r="B53" s="16"/>
+      <c r="C53" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" s="14"/>
-      <c r="C54" s="15" t="s">
+      <c r="B54" s="16"/>
+      <c r="C54" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="14"/>
-      <c r="C55" s="15" t="s">
+      <c r="B55" s="16"/>
+      <c r="C55" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="14"/>
-      <c r="C56" s="15" t="s">
+      <c r="B56" s="16"/>
+      <c r="C56" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D56" s="5"/>
+      <c r="D56" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1397,7 +1405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1409,47 +1417,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1461,35 +1469,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="9" customWidth="1"/>
     <col min="3" max="3" width="53.85546875" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="2:5" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1503,7 +1511,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" s="3" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1517,7 +1525,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1531,7 +1539,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1545,7 +1553,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1553,7 +1561,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" s="3" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1561,22 +1569,22 @@
       </c>
     </row>
     <row r="8" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
+      <c r="B11" s="8"/>
     </row>
     <row r="12" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="13" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
+      <c r="B13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
